--- a/Resource/excel/玩家-签到配置.xlsx
+++ b/Resource/excel/玩家-签到配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\QQTMP\241256258\FileRecv\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>#signin</t>
   </si>
@@ -93,16 +88,25 @@
     <t>[{"item":{"id":"11001","count":"1"}}]</t>
   </si>
   <si>
-    <t>[{"money":"20"}]</t>
+    <t>[{"money":"100"}]</t>
   </si>
   <si>
     <t>[{"money":"0"}]</t>
   </si>
   <si>
-    <t>[{"money":"100"}]</t>
+    <t>[{"money":"300"}]</t>
   </si>
   <si>
     <t>[{"item":{"id":"10001","count":"1"}}]</t>
+  </si>
+  <si>
+    <t>[{"money":"500"}]</t>
+  </si>
+  <si>
+    <t>[{"money":"1000"}]</t>
+  </si>
+  <si>
+    <t>[{"hero":{"id":"2"}}]</t>
   </si>
   <si>
     <t>[{"item":{"id":"20001","count":"1"}}]</t>
@@ -111,8 +115,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -136,6 +146,150 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -150,7 +304,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +341,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -211,9 +551,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -262,13 +844,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -290,15 +920,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -627,24 +1254,25 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
-    <col min="3" max="3" width="50.75" style="6" customWidth="1"/>
+    <col min="3" max="3" width="41.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="18.25" style="6" customWidth="1"/>
     <col min="5" max="5" width="41.5" style="6" customWidth="1"/>
     <col min="6" max="6" width="10.375" style="6" customWidth="1"/>
@@ -662,13 +1290,13 @@
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -692,7 +1320,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -716,7 +1344,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="4" customFormat="1" spans="1:12">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -740,7 +1368,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -754,7 +1382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -768,7 +1396,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -782,7 +1410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -796,12 +1424,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
@@ -810,12 +1438,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
@@ -824,24 +1452,23 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/玩家-签到配置.xlsx
+++ b/Resource/excel/玩家-签到配置.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
@@ -22,7 +27,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0">
+    <comment ref="D4" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -50,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>#signin</t>
   </si>
@@ -110,19 +115,17 @@
   </si>
   <si>
     <t>[{"item":{"id":"20001","count":"1"}}]</t>
+  </si>
+  <si>
+    <t>[{"item":{"id":"11001"}}]</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="25">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -149,150 +152,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -304,7 +163,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -341,194 +200,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -551,251 +224,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -844,61 +275,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b val="1"/>
+        <b/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -920,12 +303,15 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="0005FF6F"/>
+      <color rgb="FF05FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1254,21 +640,20 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
@@ -1290,13 +675,13 @@
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:2">
+    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" s="2" customFormat="1" spans="1:12">
+    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1320,7 +705,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:12">
+    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -1344,7 +729,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" s="4" customFormat="1" spans="1:12">
+    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -1368,7 +753,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -1379,10 +764,10 @@
         <v>0</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
         <v>2</v>
       </c>
@@ -1396,7 +781,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>3</v>
       </c>
@@ -1410,7 +795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>4</v>
       </c>
@@ -1424,7 +809,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:5">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>5</v>
       </c>
@@ -1438,7 +823,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:5">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>6</v>
       </c>
@@ -1452,7 +837,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:5">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>7</v>
       </c>
@@ -1467,8 +852,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/Resource/excel/玩家-签到配置.xlsx
+++ b/Resource/excel/玩家-签到配置.xlsx
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>#signin</t>
   </si>
@@ -96,9 +96,6 @@
     <t>[{"money":"100"}]</t>
   </si>
   <si>
-    <t>[{"money":"0"}]</t>
-  </si>
-  <si>
     <t>[{"money":"300"}]</t>
   </si>
   <si>
@@ -112,13 +109,6 @@
   </si>
   <si>
     <t>[{"hero":{"id":"2"}}]</t>
-  </si>
-  <si>
-    <t>[{"item":{"id":"20001","count":"1"}}]</t>
-  </si>
-  <si>
-    <t>[{"item":{"id":"11001"}}]</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -650,7 +640,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -763,9 +753,7 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="14" t="s">
-        <v>20</v>
-      </c>
+      <c r="E5" s="14"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B6" s="6">
@@ -777,79 +765,67 @@
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E7" s="14"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="14" t="s">
-        <v>15</v>
-      </c>
+      <c r="E8" s="14"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E9" s="14"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="14" t="s">
-        <v>13</v>
-      </c>
+      <c r="E10" s="14"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="14" t="s">
-        <v>19</v>
-      </c>
+      <c r="E11" s="14"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/Resource/excel/玩家-签到配置.xlsx
+++ b/Resource/excel/玩家-签到配置.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\FighterServer\Resource\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="signin" sheetId="1" r:id="rId1"/>
@@ -27,7 +22,7 @@
     <author>PCC</author>
   </authors>
   <commentList>
-    <comment ref="D4" authorId="0" shapeId="0">
+    <comment ref="D4" authorId="0">
       <text>
         <r>
           <rPr>
@@ -55,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="22">
   <si>
     <t>#signin</t>
   </si>
@@ -90,32 +85,50 @@
     <t>ExtendReward(json)</t>
   </si>
   <si>
+    <t>[{"money":"90"}]</t>
+  </si>
+  <si>
     <t>[{"item":{"id":"11001","count":"1"}}]</t>
   </si>
   <si>
     <t>[{"money":"100"}]</t>
   </si>
   <si>
-    <t>[{"money":"300"}]</t>
+    <t>[{"money":"0"}]</t>
+  </si>
+  <si>
+    <t>[{"money":"120"}]</t>
+  </si>
+  <si>
+    <t>[{"money":"160"}]</t>
   </si>
   <si>
     <t>[{"item":{"id":"10001","count":"1"}}]</t>
   </si>
   <si>
+    <t>[{"money":"230"}]</t>
+  </si>
+  <si>
+    <t>[{"money":"340"}]</t>
+  </si>
+  <si>
     <t>[{"money":"500"}]</t>
   </si>
   <si>
-    <t>[{"money":"1000"}]</t>
-  </si>
-  <si>
-    <t>[{"hero":{"id":"2"}}]</t>
+    <t>[{"item":{"id":"20001","count":"1"}}]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -139,6 +152,150 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -153,7 +310,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,8 +347,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -214,9 +557,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -265,13 +850,61 @@
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
       <font>
-        <b/>
+        <b val="1"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -293,15 +926,12 @@
   </tableStyles>
   <colors>
     <mruColors>
-      <color rgb="FF05FF6F"/>
+      <color rgb="0005FF6F"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -630,20 +1260,21 @@
       <a:lstStyle/>
     </a:spDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:L11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="21.5" style="5" customWidth="1"/>
     <col min="2" max="2" width="17.75" style="6" customWidth="1"/>
@@ -665,13 +1296,13 @@
     <col min="19" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" s="1" customFormat="1" spans="1:2">
       <c r="A1" s="7"/>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" s="2" customFormat="1" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -695,7 +1326,7 @@
       <c r="K2" s="9"/>
       <c r="L2" s="9"/>
     </row>
-    <row r="3" spans="1:12" s="3" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" s="3" customFormat="1" spans="1:12">
       <c r="A3" s="7">
         <v>0</v>
       </c>
@@ -719,7 +1350,7 @@
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
     </row>
-    <row r="4" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" s="4" customFormat="1" spans="1:12">
       <c r="A4" s="13" t="s">
         <v>6</v>
       </c>
@@ -743,7 +1374,7 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:5">
       <c r="B5" s="6">
         <v>1</v>
       </c>
@@ -753,84 +1384,97 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="14"/>
+      <c r="E5" s="14" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:5">
       <c r="B6" s="6">
         <v>2</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="14"/>
+      <c r="E6" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:5">
       <c r="B7" s="6">
         <v>3</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="6">
         <v>0</v>
       </c>
-      <c r="E7" s="14"/>
+      <c r="E7" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:5">
       <c r="B8" s="6">
         <v>4</v>
       </c>
       <c r="C8" s="14" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D8" s="6">
         <v>0</v>
       </c>
-      <c r="E8" s="14"/>
+      <c r="E8" s="14" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:5">
       <c r="B9" s="6">
         <v>5</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D9" s="6">
         <v>0</v>
       </c>
-      <c r="E9" s="14"/>
+      <c r="E9" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:5">
       <c r="B10" s="6">
         <v>6</v>
       </c>
       <c r="C10" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D10" s="6">
         <v>0</v>
       </c>
-      <c r="E10" s="14"/>
+      <c r="E10" s="14" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:5">
       <c r="B11" s="6">
         <v>7</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D11" s="6">
         <v>0</v>
       </c>
-      <c r="E11" s="14"/>
+      <c r="E11" s="14" t="s">
+        <v>21</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter alignWithMargins="0"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
